--- a/biology/Botanique/Arracacia/Arracacia.xlsx
+++ b/biology/Botanique/Arracacia/Arracacia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Arracacia de la famille des Apiaceae comprend en Amérique du Sud et Amérique centrale (du Mexique au nord-est de l’Argentine) des espèces de plantes herbacées. Parmi celles-ci, une espèce à racine tubéreuse, l’arracacha (Accaracia xanthorrhiza), est largement cultivée et consommée par les populations au Brésil ou dans toutes les régions andines.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 févr. 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 févr. 2013) :
 Arracacia aegopodioides
 Arracacia anomala
 Arracacia bracteata
@@ -577,9 +593,9 @@
 Arracacia tolucensis
 Arracacia viscidula
 Arracacia xanthorrhiza
-Selon ITIS      (22 févr. 2013)[2] :
+Selon ITIS      (22 févr. 2013) :
 Arracacia xanthorrhiza Bancr.
-Selon NCBI  (22 févr. 2013)[3] :
+Selon NCBI  (22 févr. 2013) :
 Arracacia aegopodioides
 Arracacia andina
 Arracacia anomala
@@ -612,7 +628,7 @@
 variété Arracacia tolucensis var. tolucensis
 Arracacia vaginata
 Arracacia xanthorrhiza
-Selon Tropicos                                           (22 févr. 2013)[4] :
+Selon Tropicos                                           (22 févr. 2013) :
 Arracacia acuminata Benth.
 Arracacia aegopodioides (Kunth) J.M. Coult. &amp; Rose
 Arracacia andina Britton
